--- a/generated_docs/WR_898402_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_898402_WeekEnding_081725.xlsx
@@ -558,7 +558,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:49 PM</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="H17" s="13" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/generated_docs/WR_898402_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_898402_WeekEnding_081725.xlsx
@@ -558,7 +558,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:49 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -630,11 +630,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>#NO MATCH</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -748,7 +744,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="17">
@@ -758,7 +754,7 @@
         </is>
       </c>
       <c r="H17" s="13" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
   </sheetData>
